--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>TC</t>
   </si>
@@ -163,6 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,54 +230,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +489,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -497,13 +498,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,12 +542,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -577,7 +578,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -596,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,10 +618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -651,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -694,13 +695,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -709,10 +710,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -741,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -766,13 +767,13 @@
       <c r="M2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -781,16 +782,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -834,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -871,15 +872,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -888,16 +889,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -944,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -984,9 +985,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
   <si>
     <t>TC</t>
   </si>
@@ -163,6 +163,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,54 +230,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +489,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -497,13 +498,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,12 +542,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -577,7 +578,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -596,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,10 +618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -637,7 +638,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -651,7 +652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -694,13 +695,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -709,10 +710,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -741,7 +742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -766,13 +767,13 @@
       <c r="M2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -781,16 +782,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -834,7 +835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -871,15 +872,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -888,16 +889,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -944,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -984,9 +985,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
+    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Scottish Payroll InputSheet creations\Scottish Input sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4215" windowWidth="14340" xWindow="390" yWindow="330"/>
+    <workbookView xWindow="390" yWindow="330" windowWidth="14340" windowHeight="4215" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="GeneralTaxRateMonthly" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForMonthlyTax" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="GeneralTaxRateMonthly" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForMonthlyTax" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="45">
   <si>
     <t>TC</t>
   </si>
@@ -163,7 +163,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="0"/>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -230,54 +229,54 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="2">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -294,10 +293,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -332,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +383,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +488,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -498,13 +497,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -514,7 +513,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -523,7 +522,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -532,7 +531,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -542,12 +541,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -578,7 +577,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -597,7 +596,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -609,7 +608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,10 +617,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row ht="30" r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -652,7 +651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -695,13 +694,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -710,10 +709,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="3" max="4" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -742,7 +741,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="24.75" r="2" s="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
@@ -767,13 +766,13 @@
       <c r="M2" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -782,16 +781,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="13.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -835,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -872,15 +871,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -889,16 +888,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="52.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="45.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="48.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="12.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="52.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="48.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -945,7 +944,7 @@
         <v>8</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="55.9" r="2" s="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="12" customFormat="1" ht="55.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>37</v>
       </c>
@@ -985,9 +984,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://eu2.salesforce.com/a0Xb000000OaLioEAF" r:id="rId1" ref="A2"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://eu2.salesforce.com/a0Xb000000OaLioEAF"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite ScottishTaxMonth10CSBRNTK50PercentRegulatory201819.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="45">
   <si>
     <t>TC</t>
   </si>
